--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8565,10 +8565,8 @@
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -8590,10 +8588,8 @@
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -8615,10 +8611,8 @@
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -8640,10 +8634,8 @@
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -8665,10 +8657,8 @@
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -8690,10 +8680,8 @@
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -8723,10 +8711,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -8748,10 +8734,8 @@
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -8773,10 +8757,8 @@
       </c>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -8811,10 +8793,8 @@
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -8844,10 +8824,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -8877,10 +8855,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -8906,10 +8882,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -8931,10 +8905,8 @@
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -8956,10 +8928,8 @@
       </c>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -8981,10 +8951,8 @@
       </c>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -9006,10 +8974,8 @@
       </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -9031,10 +8997,8 @@
       </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -9056,10 +9020,8 @@
       </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -9081,10 +9043,8 @@
       </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -9106,10 +9066,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -9131,10 +9089,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -9156,10 +9112,8 @@
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -9181,10 +9135,8 @@
       </c>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -9206,10 +9158,8 @@
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -9231,10 +9181,8 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9256,10 +9204,8 @@
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -9281,104 +9227,118 @@
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E325" t="inlineStr"/>
-      <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
-      <c r="F326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -9390,28 +9350,24 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -9423,51 +9379,47 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>4.19M</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>4.1M</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -9485,28 +9437,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -9518,28 +9466,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -9551,63 +9495,47 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
           <t>3</t>
@@ -9617,30 +9545,18 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
           <t>3</t>
@@ -9650,2211 +9566,15 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr"/>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr"/>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr"/>
-      <c r="E341" t="inlineStr"/>
-      <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr"/>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>0.664M</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>0.64M</t>
-        </is>
-      </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
-      <c r="D346" t="inlineStr"/>
-      <c r="E346" t="inlineStr"/>
-      <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr"/>
-      <c r="E347" t="inlineStr"/>
-      <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>4.335%</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>4.478%</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr"/>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr"/>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr"/>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr"/>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr"/>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
-      <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr"/>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr"/>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr"/>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr"/>
-      <c r="E357" t="inlineStr"/>
-      <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr"/>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr"/>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr"/>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr"/>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr"/>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr"/>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>0.140%</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr"/>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr"/>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr"/>
-      <c r="G372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr"/>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr"/>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr"/>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr"/>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr"/>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr"/>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr"/>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr"/>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr"/>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr"/>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr"/>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr"/>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr"/>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr"/>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr"/>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr"/>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr"/>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/29</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr"/>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr"/>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr"/>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr"/>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr"/>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8569,10 +8569,8 @@
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -8598,10 +8596,8 @@
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -8627,10 +8623,8 @@
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -8656,10 +8650,8 @@
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -8685,10 +8677,8 @@
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -8714,10 +8704,8 @@
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -8751,10 +8739,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -8776,10 +8762,8 @@
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -8801,10 +8785,8 @@
       </c>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -8839,10 +8821,8 @@
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -8872,10 +8852,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -8905,10 +8883,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -8934,10 +8910,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -8959,10 +8933,8 @@
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -8984,10 +8956,8 @@
       </c>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -9009,10 +8979,8 @@
       </c>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -9034,10 +9002,8 @@
       </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -9059,10 +9025,8 @@
       </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -9084,10 +9048,8 @@
       </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -9109,10 +9071,8 @@
       </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -9134,10 +9094,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -9159,10 +9117,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -9184,10 +9140,8 @@
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -9209,10 +9163,8 @@
       </c>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -9234,10 +9186,8 @@
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -9259,10 +9209,8 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9284,10 +9232,8 @@
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -9309,104 +9255,118 @@
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E325" t="inlineStr"/>
-      <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
-      <c r="F326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -9418,28 +9378,24 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -9451,51 +9407,47 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>4.19M</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>4.1M</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -9513,28 +9465,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -9546,28 +9494,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -9579,63 +9523,47 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
           <t>3</t>
@@ -9645,30 +9573,18 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
           <t>3</t>
@@ -9678,2227 +9594,15 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr"/>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr"/>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr"/>
-      <c r="E341" t="inlineStr"/>
-      <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr"/>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>0.664M</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>0.64M</t>
-        </is>
-      </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
-      <c r="D346" t="inlineStr"/>
-      <c r="E346" t="inlineStr"/>
-      <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr"/>
-      <c r="E347" t="inlineStr"/>
-      <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>4.335%</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>4.478%</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr"/>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr"/>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr"/>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr"/>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
-      <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr"/>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr"/>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr"/>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr"/>
-      <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr"/>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr"/>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr"/>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr"/>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr"/>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr"/>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>0.140%</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr"/>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr"/>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr"/>
-      <c r="G372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>7.02%</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr"/>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr"/>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr"/>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr"/>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr"/>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr"/>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr"/>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr"/>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr"/>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr"/>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr"/>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr"/>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr"/>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr"/>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr"/>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/29</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr"/>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr"/>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr"/>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr"/>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr"/>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8569,10 +8569,8 @@
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -8598,10 +8596,8 @@
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -8627,10 +8623,8 @@
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -8656,10 +8650,8 @@
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -8685,10 +8677,8 @@
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -8714,10 +8704,8 @@
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -8751,10 +8739,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -8780,10 +8766,8 @@
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -8809,10 +8793,8 @@
       </c>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -8847,10 +8829,8 @@
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -8880,10 +8860,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -8913,10 +8891,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -8942,10 +8918,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -8967,10 +8941,8 @@
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -8992,10 +8964,8 @@
       </c>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -9017,10 +8987,8 @@
       </c>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -9042,10 +9010,8 @@
       </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -9067,10 +9033,8 @@
       </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -9092,10 +9056,8 @@
       </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -9117,10 +9079,8 @@
       </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -9142,10 +9102,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -9167,10 +9125,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -9192,10 +9148,8 @@
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -9217,10 +9171,8 @@
       </c>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -9242,10 +9194,8 @@
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -9267,10 +9217,8 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9292,10 +9240,8 @@
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -9317,104 +9263,118 @@
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E325" t="inlineStr"/>
-      <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
-      <c r="F326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -9426,28 +9386,24 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -9459,51 +9415,47 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>4.19M</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>4.1M</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -9521,28 +9473,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -9554,28 +9502,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -9587,63 +9531,47 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
           <t>3</t>
@@ -9653,30 +9581,18 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
           <t>3</t>
@@ -9686,2251 +9602,15 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr"/>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr"/>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr"/>
-      <c r="E341" t="inlineStr"/>
-      <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr"/>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>0.664M</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>0.64M</t>
-        </is>
-      </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr"/>
-      <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>4.165%</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr"/>
-      <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>4.335%</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>4.478%</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr"/>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr"/>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr"/>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr"/>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
-      <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr"/>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr"/>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr"/>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr"/>
-      <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr"/>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr"/>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr"/>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr"/>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr"/>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr"/>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>0.140%</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr"/>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr"/>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr"/>
-      <c r="G372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>7.02%</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>224.6</t>
-        </is>
-      </c>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>558.8</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>163.0</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr"/>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr"/>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr"/>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr"/>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr"/>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr"/>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr"/>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr"/>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr"/>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr"/>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr"/>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr"/>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr"/>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr"/>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/29</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr"/>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr"/>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr"/>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr"/>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr"/>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8569,10 +8569,8 @@
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -8598,10 +8596,8 @@
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -8627,10 +8623,8 @@
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -8656,10 +8650,8 @@
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -8685,10 +8677,8 @@
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -8714,10 +8704,8 @@
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -8751,10 +8739,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -8780,10 +8766,8 @@
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -8809,10 +8793,8 @@
       </c>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -8851,10 +8833,8 @@
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -8884,10 +8864,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -8917,10 +8895,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -8946,10 +8922,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -8971,10 +8945,8 @@
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -8996,10 +8968,8 @@
       </c>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -9021,10 +8991,8 @@
       </c>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -9046,10 +9014,8 @@
       </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -9071,10 +9037,8 @@
       </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -9096,10 +9060,8 @@
       </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -9121,10 +9083,8 @@
       </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -9146,10 +9106,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -9171,10 +9129,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -9196,10 +9152,8 @@
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -9221,10 +9175,8 @@
       </c>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -9246,10 +9198,8 @@
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -9271,10 +9221,8 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9296,10 +9244,8 @@
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -9321,104 +9267,118 @@
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E325" t="inlineStr"/>
-      <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
-      <c r="F326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -9430,28 +9390,24 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -9463,51 +9419,47 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>4.19M</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>4.1M</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -9525,28 +9477,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -9558,28 +9506,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -9591,63 +9535,47 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
           <t>3</t>
@@ -9657,30 +9585,18 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
           <t>3</t>
@@ -9690,2255 +9606,15 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr"/>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr"/>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr"/>
-      <c r="E341" t="inlineStr"/>
-      <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr"/>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>0.664M</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>0.64M</t>
-        </is>
-      </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr"/>
-      <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>4.165%</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr"/>
-      <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>4.335%</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>4.478%</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr"/>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr"/>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr"/>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr"/>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
-      <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr"/>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr"/>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr"/>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr"/>
-      <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr"/>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr"/>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr"/>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr"/>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr"/>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr"/>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>0.140%</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr"/>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr"/>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr"/>
-      <c r="G372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>1M</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>7.02%</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>224.6</t>
-        </is>
-      </c>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>558.8</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>163.0</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr"/>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr"/>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr"/>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr"/>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr"/>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr"/>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr"/>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr"/>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr"/>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr"/>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr"/>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr"/>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr"/>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr"/>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/29</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr"/>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr"/>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr"/>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr"/>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr"/>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G429"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8933,10 +8933,8 @@
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -8966,10 +8964,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -8999,10 +8995,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -9028,10 +9022,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -9057,10 +9049,8 @@
         </is>
       </c>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -9086,10 +9076,8 @@
         </is>
       </c>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -9115,10 +9103,8 @@
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -9140,10 +9126,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -9165,10 +9149,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -9190,10 +9172,8 @@
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -9219,10 +9199,8 @@
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -9244,10 +9222,8 @@
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -9269,10 +9245,8 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9294,10 +9268,8 @@
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -9319,10 +9291,8 @@
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -9344,10 +9314,8 @@
       </c>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -9369,10 +9337,8 @@
       </c>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -9394,10 +9360,8 @@
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -9419,40 +9383,46 @@
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+        </is>
+      </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr"/>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -9466,123 +9436,91 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
+      <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr"/>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>4.19M</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>4.1M</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -9594,24 +9532,24 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>GDP Price Index QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -9623,30 +9561,18 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Initial Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
           <t>2</t>
@@ -9656,30 +9582,18 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Continuing Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr">
         <is>
           <t>3</t>
@@ -9689,28 +9603,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Core PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -9722,28 +9632,24 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>GDP Sales QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -9755,30 +9661,18 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/25</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr">
         <is>
           <t>3</t>
@@ -9788,24 +9682,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -9817,24 +9711,24 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Real Consumer Spending QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -9846,224 +9740,192 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Pending Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Pending Home Sales YoYDEC</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
+        </is>
+      </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr"/>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
+      <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr"/>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
+      <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>0.664M</t>
-        </is>
-      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr"/>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>0.64M</t>
-        </is>
-      </c>
+      <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
+      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>30-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
       <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
+      <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>4.165%</t>
-        </is>
-      </c>
+      <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr">
@@ -10075,123 +9937,147 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
-          <t>4.335%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
-      <c r="F352" t="inlineStr"/>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
-          <t>4.478%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
-      <c r="F353" t="inlineStr"/>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Employment Cost - Wages QoQQ4</t>
+        </is>
+      </c>
       <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10201,24 +10087,24 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10230,19 +10116,19 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -10259,24 +10145,24 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10288,19 +10174,19 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -10312,80 +10198,68 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+      <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr"/>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
+      <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr">
         <is>
           <t>3</t>
@@ -10395,1648 +10269,15 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr"/>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>0.140%</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr"/>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>1M</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>7.02%</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr"/>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>224.6</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr"/>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>558.8</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>163.0</t>
-        </is>
-      </c>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
-      <c r="E393" t="inlineStr"/>
-      <c r="F393" t="inlineStr"/>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr"/>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr"/>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr"/>
-      <c r="G396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E397" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr"/>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr"/>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr"/>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr"/>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr"/>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr"/>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/29</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr"/>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr"/>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr"/>
-      <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr"/>
-      <c r="E428" t="inlineStr"/>
-      <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr"/>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
-      <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G429"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8933,10 +8933,8 @@
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -8966,10 +8964,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -8999,10 +8995,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -9028,10 +9022,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -9057,10 +9049,8 @@
         </is>
       </c>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -9086,10 +9076,8 @@
         </is>
       </c>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -9115,10 +9103,8 @@
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -9140,10 +9126,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -9165,10 +9149,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -9190,10 +9172,8 @@
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -9219,10 +9199,8 @@
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -9244,10 +9222,8 @@
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -9269,10 +9245,8 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9294,10 +9268,8 @@
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -9319,10 +9291,8 @@
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -9344,10 +9314,8 @@
       </c>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -9369,10 +9337,8 @@
       </c>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -9394,10 +9360,8 @@
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -9419,42 +9383,44 @@
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
+        </is>
+      </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr"/>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
+      <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr">
@@ -9466,123 +9432,87 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
+      <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr"/>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+          <t>4.205%</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>4.15M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>4.19M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>4.1M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -9594,156 +9524,132 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr"/>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>GDP Price Index QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Initial Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>228.0K</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Continuing Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>1899K</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>1885.0K</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -9755,28 +9661,24 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Core PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -9788,24 +9690,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>GDP Sales QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -9817,24 +9719,24 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/25</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>213.5K</t>
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>214.0K</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -9846,22 +9748,26 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G343" t="inlineStr">
         <is>
           <t>3</t>
@@ -9871,22 +9777,26 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Real Consumer Spending QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G344" t="inlineStr">
         <is>
           <t>3</t>
@@ -9896,37 +9806,53 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Pending Home Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr"/>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Pending Home Sales YoYDEC</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -9938,107 +9864,79 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>0.664M</t>
-        </is>
-      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr"/>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>0.64M</t>
-        </is>
-      </c>
+      <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
+      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
+      <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr">
@@ -10050,20 +9948,16 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>4.165%</t>
-        </is>
-      </c>
+      <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr">
@@ -10075,45 +9969,29 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>4.335%</t>
-        </is>
-      </c>
+      <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>4.478%</t>
-        </is>
-      </c>
+      <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr">
@@ -10123,75 +10001,91 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Personal Spending MoMDEC</t>
+        </is>
+      </c>
       <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10201,24 +10095,24 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10230,19 +10124,19 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -10259,24 +10153,24 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10288,13 +10182,13 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -10305,116 +10199,112 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr">
         <is>
           <t>3</t>
@@ -10424,26 +10314,18 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr">
         <is>
           <t>3</t>
@@ -10453,1590 +10335,15 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="D366" t="inlineStr"/>
       <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr"/>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>0.140%</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr"/>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>1M</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>7.02%</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr"/>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>224.6</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr"/>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>558.8</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>163.0</t>
-        </is>
-      </c>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
-      <c r="E393" t="inlineStr"/>
-      <c r="F393" t="inlineStr"/>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr"/>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr"/>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr"/>
-      <c r="G396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E397" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr"/>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr"/>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr"/>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr"/>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr"/>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr"/>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/29</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr"/>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr"/>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr"/>
-      <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr"/>
-      <c r="E428" t="inlineStr"/>
-      <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr"/>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
-      <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G430"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8933,10 +8933,8 @@
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -8970,10 +8968,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -9007,10 +9003,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -9040,10 +9034,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -9073,10 +9065,8 @@
         </is>
       </c>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -9106,10 +9096,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -9139,10 +9127,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -9164,10 +9150,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -9189,10 +9173,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -9218,10 +9200,8 @@
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G319" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -9247,10 +9227,8 @@
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -9272,10 +9250,8 @@
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -9297,10 +9273,8 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9322,10 +9296,8 @@
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -9347,10 +9319,8 @@
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -9372,10 +9342,8 @@
       </c>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -9401,10 +9369,8 @@
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -9426,10 +9392,8 @@
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -9451,10 +9415,8 @@
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -9476,10 +9438,8 @@
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -9501,40 +9461,46 @@
       </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+        </is>
+      </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr"/>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -9548,123 +9514,91 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
+      <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr"/>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>4.19M</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>4.1M</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -9676,24 +9610,24 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>GDP Price Index QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -9705,28 +9639,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Initial Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>228.0K</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -9738,28 +9668,24 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Continuing Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1899K</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1885.0K</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -9771,28 +9697,24 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Core PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -9804,28 +9726,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>GDP Sales QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -9837,28 +9755,24 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/25</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>213.5K</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>214.0K</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -9870,22 +9784,26 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G343" t="inlineStr">
         <is>
           <t>3</t>
@@ -9895,22 +9813,26 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Real Consumer Spending QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G344" t="inlineStr">
         <is>
           <t>3</t>
@@ -9920,37 +9842,53 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Pending Home Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr"/>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Pending Home Sales YoYDEC</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -9962,111 +9900,87 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t>0.664M</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>0.64M</t>
-        </is>
-      </c>
+          <t>-233Bcf</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>4.265%</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
+      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
+      <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr">
@@ -10078,20 +9992,16 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>4.165%</t>
-        </is>
-      </c>
+      <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr">
@@ -10103,45 +10013,29 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>4.335%</t>
-        </is>
-      </c>
+      <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>4.478%</t>
-        </is>
-      </c>
+      <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr">
@@ -10151,75 +10045,99 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Personal Spending MoMDEC</t>
+        </is>
+      </c>
       <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr"/>
-      <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10229,28 +10147,24 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
           <t>0.8%</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10262,19 +10176,19 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -10291,24 +10205,24 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10320,13 +10234,13 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -10337,116 +10251,112 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr">
         <is>
           <t>3</t>
@@ -10456,26 +10366,18 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr">
         <is>
           <t>3</t>
@@ -10485,1655 +10387,15 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="D366" t="inlineStr"/>
       <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>42-Day Bill Auction</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>0.140%</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr"/>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>1M</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>7.02%</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr"/>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr"/>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>224.6</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>558.8</t>
-        </is>
-      </c>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>163.0</t>
-        </is>
-      </c>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
-      <c r="E393" t="inlineStr"/>
-      <c r="F393" t="inlineStr"/>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr"/>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr"/>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr"/>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr"/>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>228.0K</t>
-        </is>
-      </c>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>1899K</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>1885.0K</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>213.5K</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>214.0K</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>-233Bcf</t>
-        </is>
-      </c>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr"/>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/29</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr"/>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E427" t="inlineStr"/>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr"/>
-      <c r="E428" t="inlineStr"/>
-      <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
-      <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr"/>
-      <c r="C430" t="inlineStr"/>
-      <c r="D430" t="inlineStr"/>
-      <c r="E430" t="inlineStr"/>
-      <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G430"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8933,10 +8933,8 @@
       </c>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -8970,10 +8968,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -9007,10 +9003,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -9040,10 +9034,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -9073,10 +9065,8 @@
         </is>
       </c>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -9106,10 +9096,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -9139,10 +9127,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -9168,10 +9154,8 @@
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -9197,10 +9181,8 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -9230,10 +9212,8 @@
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G319" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -9263,10 +9243,8 @@
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -9292,10 +9270,8 @@
       </c>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -9321,10 +9297,8 @@
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9350,10 +9324,8 @@
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -9379,10 +9351,8 @@
       </c>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -9408,10 +9378,8 @@
       </c>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -9441,10 +9409,8 @@
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -9470,10 +9436,8 @@
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -9499,10 +9463,8 @@
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -9528,10 +9490,8 @@
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -9557,40 +9517,46 @@
       </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+        </is>
+      </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr"/>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -9604,123 +9570,91 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
+      <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr"/>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>4.19M</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>4.1M</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -9732,24 +9666,24 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>GDP Price Index QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -9761,28 +9695,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Initial Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>228.0K</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -9794,28 +9724,24 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Continuing Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1899K</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1885.0K</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -9827,28 +9753,24 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Core PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -9860,28 +9782,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>GDP Sales QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -9893,28 +9811,24 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/25</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>213.5K</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>214.0K</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -9926,22 +9840,26 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G343" t="inlineStr">
         <is>
           <t>3</t>
@@ -9951,22 +9869,26 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Real Consumer Spending QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G344" t="inlineStr">
         <is>
           <t>3</t>
@@ -9976,37 +9898,53 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Pending Home Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr"/>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Pending Home Sales YoYDEC</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -10018,109 +9956,89 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t>0.664M</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>0.64M</t>
-        </is>
-      </c>
+          <t>-233Bcf</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>4.265%</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
+      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
-          <t>4.215%</t>
+          <t>6.16%</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -10134,18 +10052,18 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
-          <t>4.165%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -10159,45 +10077,29 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>4.335%</t>
-        </is>
-      </c>
+      <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>4.478%</t>
-        </is>
-      </c>
+      <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr">
@@ -10207,75 +10109,99 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Personal Spending MoMDEC</t>
+        </is>
+      </c>
       <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr"/>
-      <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10285,28 +10211,24 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
           <t>0.8%</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10318,19 +10240,19 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -10347,24 +10269,24 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10376,13 +10298,13 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -10393,116 +10315,112 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr">
         <is>
           <t>3</t>
@@ -10512,26 +10430,18 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr">
         <is>
           <t>3</t>
@@ -10541,1675 +10451,15 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="D366" t="inlineStr"/>
       <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>42-Day Bill Auction</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>0.140%</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr"/>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>1M</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>7.02%</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr"/>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr"/>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>224.6</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>558.8</t>
-        </is>
-      </c>
-      <c r="E382" t="inlineStr"/>
-      <c r="F382" t="inlineStr"/>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>163.0</t>
-        </is>
-      </c>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="E384" t="inlineStr"/>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>-1.017M</t>
-        </is>
-      </c>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>2.332M</t>
-        </is>
-      </c>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
-      <c r="E393" t="inlineStr"/>
-      <c r="F393" t="inlineStr"/>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr"/>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr"/>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr"/>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr"/>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>228.0K</t>
-        </is>
-      </c>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>1899K</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>1885.0K</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>213.5K</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>214.0K</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>-233Bcf</t>
-        </is>
-      </c>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>4.265%</t>
-        </is>
-      </c>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
-      <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>6.16%</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr"/>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/30</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>6.96%</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr"/>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr"/>
-      <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/29</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E424" t="inlineStr"/>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr"/>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E427" t="inlineStr"/>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr"/>
-      <c r="E428" t="inlineStr"/>
-      <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
-      <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr"/>
-      <c r="C430" t="inlineStr"/>
-      <c r="D430" t="inlineStr"/>
-      <c r="E430" t="inlineStr"/>
-      <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
